--- a/02_ETL/01_pandas_basic/data/factory_reg_2018.xlsx
+++ b/02_ETL/01_pandas_basic/data/factory_reg_2018.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kicox\Documents\K 메신저 받은 파일\인수인계 파일\산업정보\산단공_공장등록현황\원본\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pywork\DataScience\02_ETL\01_pandas_basic\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="375" windowWidth="28035" windowHeight="12765"/>
+    <workbookView minimized="1" xWindow="360" yWindow="375" windowWidth="28035" windowHeight="12765" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="지역별 등록현황" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <sheet name="쿼리" sheetId="29" state="hidden" r:id="rId29"/>
     <sheet name="SQL" sheetId="30" state="hidden" r:id="rId30"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -3122,7 +3122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0;[Red]#,##0"/>
@@ -3850,7 +3850,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -29190,7 +29192,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
